--- a/biology/Botanique/Malvasia_nera_di_Basilicata/Malvasia_nera_di_Basilicata.xlsx
+++ b/biology/Botanique/Malvasia_nera_di_Basilicata/Malvasia_nera_di_Basilicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Malvasia nera di Basilicata  est un cépage italien de raisins noirs de la grande famille de Malvasia.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Malvasia nera di Basilicata provient du sud de l’Italie. D'origine probablement grecque, il est proche de la variété Malvasia nera di Lecce.
 Il est classé « recommandé » en province de Matera et province de Potenza dans la région de la Basilicate. En 1998, sa culture couvrait une superficie de 1 365 ha.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc.
 Jeunes feuilles duveteuses.
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque : 30  jours après le chasselas.
 </t>
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est conique. La chair est pulpeuse, très colorée et d'une saveur aromatique. La majorité de la production est vinifié en vin de table.
 </t>
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La malvasia nera di Basilicata est connu sous le nom de malvasia nera
 </t>
